--- a/Session12_Ta/Practical12 - v1.xlsx
+++ b/Session12_Ta/Practical12 - v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10539340_polimi_it/Documents/PhD/CCRE_DC_KN/A.Y. 23-24/Practical12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\CCRE_Fall_2023\Session12_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="8_{87CE165D-08E4-422E-ACFD-C640006B9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7013491B-A4D3-46F3-8C31-7D15BEC9E76B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3050BBF-C770-438E-8F8C-4A73B5DA5382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -365,7 +365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -812,7 +812,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -850,7 +850,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1305482640"/>
@@ -929,7 +929,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -967,7 +967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1390475792"/>
@@ -1015,7 +1015,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1029,7 +1029,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1194,7 +1194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1870927119"/>
@@ -1257,7 +1257,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1270338991"/>
@@ -1305,7 +1305,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1319,7 +1319,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1356,7 +1356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1494,7 +1494,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1614,7 +1614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15777519"/>
@@ -1676,7 +1676,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="225588559"/>
@@ -1724,7 +1724,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1738,7 +1738,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1775,7 +1775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2212,7 +2212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2250,7 +2250,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1305482640"/>
@@ -2329,7 +2329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2367,7 +2367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1390475792"/>
@@ -2415,7 +2415,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2429,7 +2429,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2466,7 +2466,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2903,7 +2903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2941,7 +2941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1305482640"/>
@@ -3022,7 +3022,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3060,7 +3060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1390475792"/>
@@ -3108,7 +3108,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3122,7 +3122,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4252,7 +4252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1404188752"/>
@@ -4314,7 +4314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1484263984"/>
@@ -4356,7 +4356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4393,7 +4393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4407,7 +4407,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4444,7 +4444,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4863,7 +4863,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1404188752"/>
@@ -4925,7 +4925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1484263984"/>
@@ -4973,7 +4973,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4987,7 +4987,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5024,7 +5024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5443,7 +5443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1404188752"/>
@@ -5505,7 +5505,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1484263984"/>
@@ -5553,7 +5553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5567,7 +5567,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5604,7 +5604,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6023,7 +6023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1404188752"/>
@@ -6087,7 +6087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1484263984"/>
@@ -6135,7 +6135,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6149,7 +6149,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6186,7 +6186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6605,7 +6605,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1404188752"/>
@@ -6667,7 +6667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1484263984"/>
@@ -6715,7 +6715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6729,7 +6729,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6766,7 +6766,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7185,7 +7185,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1404188752"/>
@@ -7249,7 +7249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1484263984"/>
@@ -7297,7 +7297,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14156,13 +14156,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>10</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>9.6030904282184597</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>8.2662883318318173E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9.2219187350767697</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>8.2666461089459346E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8.8558818727149493</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>8.266525403632206E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8.5043480201168293</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>8.2671558540778241E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8.1667300825572298</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>8.2681301854384791E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7.8425275903350196</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>8.2678062267004613E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7.5312306999973302</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>8.2668265715933973E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7.23221663403565</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>8.2689466063415578E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6.9450189236300499</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>8.2706098734569439E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>6.6692295728283097</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>8.2705010463384743E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6.4044405856781799</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>8.268918529504659E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>6.1502173324231402</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>8.2671307212123391E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5.90602013602527</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>8.2694332485704659E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5.6714838270509</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>8.2707212477876671E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5.4462725141665196</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>8.2702917380125286E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5.2300503060386596</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>8.2684561514908567E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5.0224393875205804</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>8.2673339586312126E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4.82301168738078</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>8.2698410481399035E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4.6314822120740899</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>8.2707637225672738E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>4.4475744319258901</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>8.2700259641776946E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4.2710118172615701</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>8.2679525236025245E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4.1014621659364598</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>8.267766199735167E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>3.93859776494936</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>8.2701718076658628E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>3.7821902135282799</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>8.2707395763246226E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3.6320118527451299</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>8.2697065357671042E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3.4878343861618002</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>8.2674491171577883E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3.3493652719465099</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>8.2683794075895378E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3.21636183631793</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>8.2704274206189012E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3.0886366542280501</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>8.2706511894195325E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2.9660023006288401</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>8.2693363773325181E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2.84826682655802</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>8.2671660515105019E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.7351814785347299</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>8.2689466063415491E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.6265650061682702</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>8.2706098734570046E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.5222631078069799</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>8.2705010463382713E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.4221214817991701</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>8.2689185295052904E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.3259757537462198</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>8.2671307212121934E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.2336218209900802</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>8.2694332485704816E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.14492157861465</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>8.2707212477874728E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.0597479945078199</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>8.2702917380125963E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1.9779740365575</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>8.2684561514913147E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1.89945681731384</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>8.2673339586310755E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1.8240344427735</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>8.269841048139194E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1.7515991300663301</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>8.2707637225678411E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1.6820462973079</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>8.2700259641781248E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1.61527136261378</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>8.2679525236015999E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1.5511562594377499</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>8.2667497598559146E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1.4895830613268199</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>8.2671721650868848E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1.4304572747373501</v>
       </c>
@@ -15785,12 +15785,12 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>6.7498588972411929E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>6.7063603499670794E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>15</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>6.6718936335290226E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>20</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>6.6437628522773157E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>25</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>6.6211236802611248E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>30</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>6.6010521919489433E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>35</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>6.5835526569989859E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>40</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>6.5714864183821532E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>45</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>6.5561380394760132E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>50</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>6.5479102261071457E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>55</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>6.5375640954599898E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>60</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>6.5256429178723952E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>65</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>6.5221562303529115E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>70</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>6.5112994548594677E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>75</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>6.5045984996489163E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>80</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>6.5023871359903181E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>85</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>6.493578312915675E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>90</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>6.4869923266128449E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>95</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>6.4871955900396997E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>100</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>6.4817446208988924E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>105</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>6.4730885412069492E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>110</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>6.4731951216537601E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>115</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>6.472396634616088E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>120</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>6.467076448683177E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>125</v>
       </c>
@@ -17554,7 +17554,7 @@
         <v>6.459679515999025E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>130</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>6.4608969289116592E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>135</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>6.4611896815468884E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>140</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>6.4575464887831986E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>145</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>6.4510578332803853E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>150</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>6.4486163537455371E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>155</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>6.4511813906087158E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>160</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>6.4501776752718875E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>165</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>6.4462349665633896E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>170</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>6.4402945960321629E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>175</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>6.4398616996747537E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>180</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>6.4413070460514112E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>185</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>6.4400226267017843E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>190</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>6.4365915881976288E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>195</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>6.4321825921297981E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>200</v>
       </c>
@@ -18544,7 +18544,7 @@
         <v>6.4330633415535668E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>205</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>6.4337916261999308E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>210</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>6.4323924073400899E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>215</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>6.429368555995631E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>220</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>6.4262429943577641E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>225</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>6.4272179874420698E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>230</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>6.4271689188985627E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>235</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>6.4255764071812207E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>240</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>6.4229139752996151E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R56" s="1"/>
     </row>
   </sheetData>
@@ -19086,17 +19086,17 @@
   <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -19104,7 +19104,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -19118,7 +19118,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -19132,7 +19132,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -19147,7 +19147,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -19161,7 +19161,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -19176,14 +19176,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>2.3573333333333375</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>480</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>2.356999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>2.3600000000000065</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>2.3600000000000065</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>5</v>
       </c>
@@ -19438,10 +19438,10 @@
         <v>2.3542857142857088</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N15" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>4.5440000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>4.5442609859669965</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>4.5439999999999969</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>4.5466666666666686</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <v>5</v>
       </c>
@@ -19696,10 +19696,10 @@
         <v>4.5428571428571374</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N23" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>6.1613333333333298</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>510</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>6.1610000000000049</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>6.1599999999999966</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>6.1600000000000019</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E30" s="3">
         <v>5</v>
       </c>
@@ -19954,10 +19954,10 @@
         <v>6.1599999999999939</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N31" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>8.2320000000000011</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>520</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>8.2319999999999958</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>8.2319999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>8.2333333333333307</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E38" s="3">
         <v>5</v>
       </c>
@@ -20212,10 +20212,10 @@
         <v>8.2342857142857078</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N39" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>17.971999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>550</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>17.974999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>17.975999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>17.980000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E46" s="3">
         <v>5</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>17.982857142857142</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>480</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>-2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>500</v>
       </c>
@@ -20508,15 +20508,15 @@
         <v>82.8</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C54" si="25">LN(B51)</f>
+        <f t="shared" ref="C51:C53" si="25">LN(B51)</f>
         <v>4.4164280613912137</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D54" si="26">-1/A51</f>
+        <f t="shared" ref="D51:D53" si="26">-1/A51</f>
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>510</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>-1.9607843137254902E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>520</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>-1.9230769230769232E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>8491</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>21.398</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -20573,10 +20573,10 @@
         <v>1963510932.8331151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
     </row>
   </sheetData>

--- a/Session12_Ta/Practical12 - v1.xlsx
+++ b/Session12_Ta/Practical12 - v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\CCRE_Fall_2023\Session12_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3050BBF-C770-438E-8F8C-4A73B5DA5382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D798E6-DE76-413F-8CE9-50ECB4A76534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
   </bookViews>
@@ -13854,9 +13854,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13894,7 +13894,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -14000,7 +14000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14142,7 +14142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14153,13 +14153,13 @@
   <dimension ref="A3:I56"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15781,8 +15781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE46B-72D4-48DE-ADBF-6BB22791A807}">
   <dimension ref="A2:S56"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="I31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19085,8 +19085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9E9D09-3CF7-47B6-9C40-9A2635188514}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
